--- a/DDS_RhythmMachine_Test_大域変数表.xlsx
+++ b/DDS_RhythmMachine_Test_大域変数表.xlsx
@@ -16,13 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>DDS_RhythmMachine_Test_大域変数表</t>
-  </si>
-  <si>
-    <t>2015.10.08</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>構造体</t>
@@ -51,10 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lookupTable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>decayAmount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,27 +59,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>phaseRegister</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tuningWord</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>waveValue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decayPeriod</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decayCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decayStop</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -102,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int16_t *</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fp32</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,13 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>持続時間</t>
-    <rPh sb="0" eb="4">
-      <t>ジゾクジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>音量</t>
     <rPh sb="0" eb="2">
       <t>オンリョウ</t>
@@ -167,13 +128,6 @@
     <t>音程</t>
     <rPh sb="0" eb="2">
       <t>オンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDS変数</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,30 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>持続カウンター</t>
-    <rPh sb="0" eb="2">
-      <t>ジゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>持続中フラグ</t>
-    <rPh sb="0" eb="3">
-      <t>ジゾクチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>持続値</t>
-    <rPh sb="0" eb="2">
-      <t>ジゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シーケンス配列</t>
     <rPh sb="5" eb="7">
       <t>ハイレツ</t>
@@ -264,10 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LOOKUP_TABLE_SIZE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SEQUENCE_LEN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -370,10 +296,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>uint8_t</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int32_t</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,6 +320,147 @@
     <rPh sb="14" eb="15">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.10.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAVE_LOOKUP_TABLE_SIZE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOD_LOOKUP_TABLE_SIZE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MODテーブルの要素数</t>
+    <rPh sb="8" eb="11">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waveLookupTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wavePhaseRegister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waveTuningWord</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayPhaseRegister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形用DDS変数</t>
+    <rPh sb="0" eb="2">
+      <t>ハケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayTuningWord</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayLookupTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fp32 *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fp32 *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayテーブルへのポインタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変調用DDS変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変調振幅値</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンリング・カウンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noteCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noteカウンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1.0 .. 1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 .. 255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 .. 255</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +533,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E35"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -774,358 +840,424 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DDS_RhythmMachine_Test_大域変数表.xlsx
+++ b/DDS_RhythmMachine_Test_大域変数表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>DDS_RhythmMachine_Test_大域変数表</t>
   </si>
@@ -139,16 +139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>持続量</t>
-    <rPh sb="0" eb="2">
-      <t>ジゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シーケンス配列</t>
     <rPh sb="5" eb="7">
       <t>ハイレツ</t>
@@ -300,10 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>noteTicks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>uint32_t</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -323,10 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015.10.11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WAVE_LOOKUP_TABLE_SIZE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,6 +443,58 @@
   </si>
   <si>
     <t>0 .. 255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticksPerNote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayPeriod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uint32_t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayの設定値</t>
+    <rPh sb="6" eb="9">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayの持続サンプル数</t>
+    <rPh sb="6" eb="8">
+      <t>ジゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayStop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uint8_t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decayの再生フラグ</t>
+    <rPh sb="6" eb="8">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.10.13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -832,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,12 +889,12 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -871,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -880,114 +914,114 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1006,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>17</v>
@@ -1017,13 +1051,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1031,16 +1065,16 @@
     </row>
     <row r="19" spans="2:6">
       <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -1048,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -1062,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -1076,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -1090,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>21</v>
@@ -1098,24 +1132,24 @@
     </row>
     <row r="24" spans="2:6">
       <c r="C24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="C25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -1126,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -1134,123 +1168,148 @@
     </row>
     <row r="27" spans="2:6">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="C29" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
         <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
         <v>76</v>
-      </c>
-      <c r="F38" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/DDS_RhythmMachine_Test_大域変数表.xlsx
+++ b/DDS_RhythmMachine_Test_大域変数表.xlsx
@@ -502,7 +502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +524,15 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -556,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +579,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,449 +878,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
       <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
       <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
       <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
         <v>73</v>
       </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E39" t="s">
         <v>76</v>
       </c>
     </row>
